--- a/biology/Zoologie/Coris/Coris.xlsx
+++ b/biology/Zoologie/Coris/Coris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coris est un genre de poissons de la famille des Labridae. La plupart des espèces sont très colorées et communément appelées « girelles ».
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre comprend des poissons très colorés, hermaphrodites protérogynes, vivant dans les eaux tropicales et tempérées de l'océan Atlantique, l'océan Pacifique, l'océan Indien, mais aussi de la mer Méditerranée et de la mer Rouge. 
 Ils sont tous carnivores, benthiques.
@@ -545,9 +559,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (16 avril 2014)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (16 avril 2014) :
 Coris atlantica (Günther, 1862)
 Coris auricularis (Valenciennes, 1839)
 Coris aurilineata (Randall &amp; Kuiter, 1982)
